--- a/AL-Library_Example/myExcel.xlsx
+++ b/AL-Library_Example/myExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>AnLaVN</t>
   </si>
@@ -67,10 +67,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>69.11</v>
+        <v>68.11</v>
       </c>
       <c r="C1" t="s" s="0">
         <v>0</v>
@@ -84,7 +84,7 @@
         <v>3.0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>68.11</v>
+        <v>69.11</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>0</v>
